--- a/Hardware/Sensors.xlsx
+++ b/Hardware/Sensors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\1. University\5th Year\EEE4022S\PAR-Measurement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\1. UNIVERSITY\University\EEE4022S\PAR-Measurement\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F795A3CF-2EB8-484C-8491-4DD4D28BD0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DCA2AA-6979-4DFA-A8CE-797AA12F67C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{39D94477-EC29-4245-8439-81DFC98DDDFE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39D94477-EC29-4245-8439-81DFC98DDDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -336,12 +336,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -377,28 +383,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -718,429 +722,429 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="54.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="18.6640625" style="1" customWidth="1"/>
     <col min="8" max="9" width="23" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="27.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="46.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>2018</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>2014</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1976</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1983</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2000</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1977</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>1966</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>2003</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>2020</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5" t="s">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="9">
         <v>2021</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="5"/>
+      <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>2021</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="s">
         <v>85</v>
       </c>
     </row>

--- a/Hardware/Sensors.xlsx
+++ b/Hardware/Sensors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\1. UNIVERSITY\University\EEE4022S\PAR-Measurement\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DCA2AA-6979-4DFA-A8CE-797AA12F67C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C45F345-25B5-41DF-B7D2-E8E3CE7686E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39D94477-EC29-4245-8439-81DFC98DDDFE}"/>
+    <workbookView xWindow="1152" yWindow="972" windowWidth="17280" windowHeight="9060" xr2:uid="{39D94477-EC29-4245-8439-81DFC98DDDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t>Paper</t>
   </si>
@@ -298,6 +298,18 @@
   </si>
   <si>
     <t>Need to look at the spectral responses of the LEDs and compare to PAR sensors</t>
+  </si>
+  <si>
+    <t>A Novel Approach to Obtain PAR with a Multi-Channel Spectral Microsensor, Suitable for Sensor Node Integration</t>
+  </si>
+  <si>
+    <t>PARNovel</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/1424-8220/21/10/3390</t>
+  </si>
+  <si>
+    <t>Multii-channel spectral sensor</t>
   </si>
 </sst>
 </file>
@@ -718,17 +730,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6C98AE-6361-4067-A32B-BD3F24AA80F7}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
     <col min="3" max="3" width="8.44140625" customWidth="1"/>
     <col min="4" max="4" width="8.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="38.21875" style="1" customWidth="1"/>
@@ -829,7 +841,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1146,6 +1158,23 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
